--- a/Yug Nigam_10684009 Cowin Database.xlsx
+++ b/Yug Nigam_10684009 Cowin Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="41">
   <si>
     <t>C_Name</t>
   </si>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,6 +295,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -593,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="E33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1788,6 +1791,9 @@
       </c>
       <c r="Q47" s="19" t="s">
         <v>34</v>
+      </c>
+      <c r="R47" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:18">
